--- a/Code/Results/Cases/Case_3_198/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_198/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.56787557962793</v>
+        <v>10.86194475070221</v>
       </c>
       <c r="C2">
-        <v>14.4319679720629</v>
+        <v>8.765511308359851</v>
       </c>
       <c r="D2">
-        <v>3.016207631719401</v>
+        <v>3.662496967612788</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>21.96436921604852</v>
+        <v>21.9602068832595</v>
       </c>
       <c r="G2">
-        <v>30.64586051082542</v>
+        <v>25.67250057052817</v>
       </c>
       <c r="H2">
-        <v>9.2585073457701</v>
+        <v>12.8474512730467</v>
       </c>
       <c r="I2">
-        <v>12.98590195003069</v>
+        <v>17.96781131422806</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>30.10490747726208</v>
+        <v>19.96712029853189</v>
       </c>
       <c r="N2">
-        <v>10.43157403224876</v>
+        <v>16.4315220332652</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.378434868106</v>
+        <v>10.31135853239955</v>
       </c>
       <c r="C3">
-        <v>13.54595908235238</v>
+        <v>8.303997148163383</v>
       </c>
       <c r="D3">
-        <v>2.978083582715831</v>
+        <v>3.647148156859569</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20.86499424133702</v>
+        <v>21.77557571008817</v>
       </c>
       <c r="G3">
-        <v>28.85378048539559</v>
+        <v>25.24395389201186</v>
       </c>
       <c r="H3">
-        <v>9.057550135612955</v>
+        <v>12.85720858881789</v>
       </c>
       <c r="I3">
-        <v>12.80465403048543</v>
+        <v>18.00954440375927</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>27.79320446648906</v>
+        <v>19.35943292105068</v>
       </c>
       <c r="N3">
-        <v>10.71045182765651</v>
+        <v>16.50351005695181</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.60642203725535</v>
+        <v>9.959174187497171</v>
       </c>
       <c r="C4">
-        <v>12.97265876771606</v>
+        <v>8.005361946026103</v>
       </c>
       <c r="D4">
-        <v>2.954020558786689</v>
+        <v>3.637579773793059</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>20.18599213614534</v>
+        <v>21.66951450099396</v>
       </c>
       <c r="G4">
-        <v>27.73680467164894</v>
+        <v>24.98880842876541</v>
       </c>
       <c r="H4">
-        <v>8.941624829882389</v>
+        <v>12.86640559219111</v>
       </c>
       <c r="I4">
-        <v>12.70943441326101</v>
+        <v>18.04033248779136</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>26.32343806966204</v>
+        <v>18.9846351146308</v>
       </c>
       <c r="N4">
-        <v>10.88297291396303</v>
+        <v>16.54956241880686</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.28132337825319</v>
+        <v>9.812282175279332</v>
       </c>
       <c r="C5">
-        <v>12.73168928388275</v>
+        <v>7.879887664047845</v>
       </c>
       <c r="D5">
-        <v>2.944065188302248</v>
+        <v>3.633645650873091</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>19.9086263003423</v>
+        <v>21.62817464366716</v>
       </c>
       <c r="G5">
-        <v>27.27790364943489</v>
+        <v>24.8870017372267</v>
       </c>
       <c r="H5">
-        <v>8.896243606518253</v>
+        <v>12.87095776561364</v>
       </c>
       <c r="I5">
-        <v>12.67451117380311</v>
+        <v>18.0541707453555</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>25.71098052449192</v>
+        <v>18.83173848483743</v>
       </c>
       <c r="N5">
-        <v>10.95370052063488</v>
+        <v>16.56879678073527</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.22670679954024</v>
+        <v>9.78769285600568</v>
       </c>
       <c r="C6">
-        <v>12.69123372983324</v>
+        <v>7.858826586289217</v>
       </c>
       <c r="D6">
-        <v>2.942403505928793</v>
+        <v>3.632990321707335</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>19.86254060894266</v>
+        <v>21.62142501298327</v>
       </c>
       <c r="G6">
-        <v>27.20149437022413</v>
+        <v>24.87023226298064</v>
       </c>
       <c r="H6">
-        <v>8.888819803945648</v>
+        <v>12.87176216798174</v>
       </c>
       <c r="I6">
-        <v>12.66894166054369</v>
+        <v>18.05654640148146</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>25.6084433303426</v>
+        <v>18.80634802907286</v>
       </c>
       <c r="N6">
-        <v>10.96547307895644</v>
+        <v>16.57201893808112</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.60208015638144</v>
+        <v>9.95720655565945</v>
       </c>
       <c r="C7">
-        <v>12.96943867207042</v>
+        <v>8.003684964095275</v>
       </c>
       <c r="D7">
-        <v>2.953886883024776</v>
+        <v>3.637526856541805</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>20.18225369653883</v>
+        <v>21.6689493057907</v>
       </c>
       <c r="G7">
-        <v>27.73063015463601</v>
+        <v>24.98742644655866</v>
       </c>
       <c r="H7">
-        <v>8.941005300265489</v>
+        <v>12.86646373051163</v>
       </c>
       <c r="I7">
-        <v>12.70894793617065</v>
+        <v>18.04051389380002</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>26.31523402122304</v>
+        <v>18.98257340903521</v>
       </c>
       <c r="N7">
-        <v>10.88392493175363</v>
+        <v>16.54981992394851</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.16639827235669</v>
+        <v>10.67513094268495</v>
       </c>
       <c r="C8">
-        <v>14.13255806638382</v>
+        <v>8.609581445087548</v>
       </c>
       <c r="D8">
-        <v>3.003207704648284</v>
+        <v>3.657235404608029</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>21.586311654646</v>
+        <v>21.89505831422094</v>
       </c>
       <c r="G8">
-        <v>30.0316387969573</v>
+        <v>25.5231777987405</v>
       </c>
       <c r="H8">
-        <v>9.187658677867372</v>
+        <v>12.85014919573495</v>
       </c>
       <c r="I8">
-        <v>12.91997847999095</v>
+        <v>17.98112527935036</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>29.3177380830211</v>
+        <v>19.75808783630529</v>
       </c>
       <c r="N8">
-        <v>10.52752761091979</v>
+        <v>16.45596051034463</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.90429814316454</v>
+        <v>11.9645468455595</v>
       </c>
       <c r="C9">
-        <v>16.180866536056</v>
+        <v>9.67458477411569</v>
       </c>
       <c r="D9">
-        <v>3.094001595654788</v>
+        <v>3.694683063391323</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>24.29687795751479</v>
+        <v>22.39424535836159</v>
       </c>
       <c r="G9">
-        <v>34.39844311636929</v>
+        <v>26.62991791227055</v>
       </c>
       <c r="H9">
-        <v>9.731284740622028</v>
+        <v>12.84366143683344</v>
       </c>
       <c r="I9">
-        <v>13.4681546984544</v>
+        <v>17.9059148754663</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>34.8517183106969</v>
+        <v>21.25498684841351</v>
       </c>
       <c r="N9">
-        <v>9.833574062809891</v>
+        <v>16.28649532637317</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.71672942464874</v>
+        <v>12.8328055026891</v>
       </c>
       <c r="C10">
-        <v>17.54442913113349</v>
+        <v>10.3799040943613</v>
       </c>
       <c r="D10">
-        <v>3.155963455975354</v>
+        <v>3.721388896259307</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>26.2525652877077</v>
+        <v>22.79186101184996</v>
       </c>
       <c r="G10">
-        <v>37.54910547364427</v>
+        <v>27.46746456653022</v>
       </c>
       <c r="H10">
-        <v>10.16840247622732</v>
+        <v>12.85451200200682</v>
       </c>
       <c r="I10">
-        <v>13.96200988880772</v>
+        <v>17.87615839372357</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>38.78146758935671</v>
+        <v>22.32717912165167</v>
       </c>
       <c r="N10">
-        <v>9.317746637515151</v>
+        <v>16.17074648944493</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.49845764203626</v>
+        <v>13.20957282453545</v>
       </c>
       <c r="C11">
-        <v>18.13426128208533</v>
+        <v>10.68374267348345</v>
       </c>
       <c r="D11">
-        <v>3.182812666418755</v>
+        <v>3.733347058542964</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>27.13403658375785</v>
+        <v>22.97871685065532</v>
       </c>
       <c r="G11">
-        <v>38.99548218807203</v>
+        <v>27.85172492080215</v>
       </c>
       <c r="H11">
-        <v>10.37582840855429</v>
+        <v>12.86284535934976</v>
       </c>
       <c r="I11">
-        <v>14.20850698787173</v>
+        <v>17.86822425365484</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>40.56403760217243</v>
+        <v>22.80655757884262</v>
       </c>
       <c r="N11">
-        <v>9.079133806465451</v>
+        <v>16.11996080741972</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.78835783524826</v>
+        <v>13.35964950910524</v>
       </c>
       <c r="C12">
-        <v>18.35324920386147</v>
+        <v>10.79633565108116</v>
       </c>
       <c r="D12">
-        <v>3.192754248444316</v>
+        <v>3.737846568500422</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>27.50374043527822</v>
+        <v>23.05026950869142</v>
       </c>
       <c r="G12">
-        <v>39.5395728967403</v>
+        <v>27.99753482191915</v>
       </c>
       <c r="H12">
-        <v>10.45565595217664</v>
+        <v>12.8664892337072</v>
       </c>
       <c r="I12">
-        <v>14.30517690331519</v>
+        <v>17.86602990145908</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>41.24110499430976</v>
+        <v>22.9867068596973</v>
       </c>
       <c r="N12">
-        <v>8.987914622890951</v>
+        <v>16.10099605299884</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.72619469392869</v>
+        <v>13.32601583011346</v>
       </c>
       <c r="C13">
-        <v>18.30628042708429</v>
+        <v>10.77219655720821</v>
       </c>
       <c r="D13">
-        <v>3.190623808586553</v>
+        <v>3.736878820986149</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>27.42309389595223</v>
+        <v>23.0348250869696</v>
       </c>
       <c r="G13">
-        <v>39.42254745261985</v>
+        <v>27.96612140089112</v>
       </c>
       <c r="H13">
-        <v>10.43840579787164</v>
+        <v>12.86568275676987</v>
       </c>
       <c r="I13">
-        <v>14.28420607237065</v>
+        <v>17.86646639719687</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>41.09514194818782</v>
+        <v>22.9479725468653</v>
       </c>
       <c r="N13">
-        <v>9.007604153820015</v>
+        <v>16.10506862472901</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.52243051962417</v>
+        <v>13.22114379574811</v>
       </c>
       <c r="C14">
-        <v>18.1523650635383</v>
+        <v>10.69305523254827</v>
       </c>
       <c r="D14">
-        <v>3.183635309348121</v>
+        <v>3.733717820843363</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>27.16142848670556</v>
+        <v>22.98458798896237</v>
       </c>
       <c r="G14">
-        <v>39.04031502366054</v>
+        <v>27.86371575156362</v>
       </c>
       <c r="H14">
-        <v>10.38236988586417</v>
+        <v>12.86313536205534</v>
       </c>
       <c r="I14">
-        <v>14.21639223835056</v>
+        <v>17.86802746267695</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>40.61968039255348</v>
+        <v>22.82140719927078</v>
       </c>
       <c r="N14">
-        <v>9.071648378387213</v>
+        <v>16.1183952329475</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.39682221264543</v>
+        <v>13.16052693247204</v>
       </c>
       <c r="C15">
-        <v>18.05751875624287</v>
+        <v>10.64425755267172</v>
       </c>
       <c r="D15">
-        <v>3.179324137290016</v>
+        <v>3.731777826751356</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>27.01814437533022</v>
+        <v>22.95391780806615</v>
       </c>
       <c r="G15">
-        <v>38.8057272868727</v>
+        <v>27.80102331359253</v>
       </c>
       <c r="H15">
-        <v>10.34821463783529</v>
+        <v>12.86163857154002</v>
       </c>
       <c r="I15">
-        <v>14.17529355428181</v>
+        <v>17.86908928892386</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>40.32880968609647</v>
+        <v>22.74369746045302</v>
       </c>
       <c r="N15">
-        <v>9.110755078264026</v>
+        <v>16.12659283301489</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.66478362533396</v>
+        <v>12.80781028857369</v>
       </c>
       <c r="C16">
-        <v>17.50527037711636</v>
+        <v>10.35970355007973</v>
       </c>
       <c r="D16">
-        <v>3.154179215608716</v>
+        <v>3.72060344995064</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>26.19479835798546</v>
+        <v>22.77976429996504</v>
       </c>
       <c r="G16">
-        <v>37.45405375373808</v>
+        <v>27.44240317749518</v>
       </c>
       <c r="H16">
-        <v>10.15502287602057</v>
+        <v>12.85403574390549</v>
       </c>
       <c r="I16">
-        <v>13.94635553896941</v>
+        <v>17.87679004055222</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>38.66508957482394</v>
+        <v>22.29566663936975</v>
       </c>
       <c r="N16">
-        <v>9.333237588999401</v>
+        <v>16.17410288506888</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.20477119944129</v>
+        <v>12.58671325154791</v>
       </c>
       <c r="C17">
-        <v>17.15869197615217</v>
+        <v>10.18076704996328</v>
       </c>
       <c r="D17">
-        <v>3.138389728878547</v>
+        <v>3.713698553020992</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>25.68762793763011</v>
+        <v>22.67441205576068</v>
       </c>
       <c r="G17">
-        <v>36.61800706978815</v>
+        <v>27.22311326685475</v>
       </c>
       <c r="H17">
-        <v>10.03873071736112</v>
+        <v>12.85024171715711</v>
       </c>
       <c r="I17">
-        <v>13.81162817016039</v>
+        <v>17.88295247544594</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>37.64488566555833</v>
+        <v>22.01853903406867</v>
       </c>
       <c r="N17">
-        <v>9.468523938286538</v>
+        <v>16.20372598878965</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.93615866285369</v>
+        <v>12.45783346470129</v>
       </c>
       <c r="C18">
-        <v>16.95648169375162</v>
+        <v>10.07624669945778</v>
       </c>
       <c r="D18">
-        <v>3.129184503160444</v>
+        <v>3.709709195549587</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>25.39513717490227</v>
+        <v>22.61438297993763</v>
       </c>
       <c r="G18">
-        <v>36.14852583626372</v>
+        <v>27.09729986132039</v>
       </c>
       <c r="H18">
-        <v>9.972646395346301</v>
+        <v>12.84837931912256</v>
       </c>
       <c r="I18">
-        <v>13.73618001361772</v>
+        <v>17.88702401710281</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>37.0574073282318</v>
+        <v>21.85836448079736</v>
       </c>
       <c r="N18">
-        <v>9.545985486957656</v>
+        <v>16.22094046299822</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.84451878348661</v>
+        <v>12.41390550209761</v>
       </c>
       <c r="C19">
-        <v>16.88752384156236</v>
+        <v>10.04058357522255</v>
       </c>
       <c r="D19">
-        <v>3.126047445805057</v>
+        <v>3.708355445821187</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>25.29597027363207</v>
+        <v>22.59415746919611</v>
       </c>
       <c r="G19">
-        <v>35.99084761726679</v>
+        <v>27.05476117932712</v>
       </c>
       <c r="H19">
-        <v>9.950408316579392</v>
+        <v>12.84780367604</v>
       </c>
       <c r="I19">
-        <v>13.71098025285157</v>
+        <v>17.88849294873842</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>36.85830754172103</v>
+        <v>21.8040042025756</v>
       </c>
       <c r="N19">
-        <v>9.572159967127975</v>
+        <v>16.22679928803851</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.25415672777662</v>
+        <v>12.61042699212446</v>
       </c>
       <c r="C20">
-        <v>17.19588252080662</v>
+        <v>10.19998096480379</v>
       </c>
       <c r="D20">
-        <v>3.140083547681182</v>
+        <v>3.714435447976215</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>25.74169758325003</v>
+        <v>22.68556879378328</v>
       </c>
       <c r="G20">
-        <v>36.70727365029637</v>
+        <v>27.24642555416386</v>
       </c>
       <c r="H20">
-        <v>10.05102674298268</v>
+        <v>12.85061249796365</v>
       </c>
       <c r="I20">
-        <v>13.82575737051608</v>
+        <v>17.88224188912119</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>37.75354128900016</v>
+        <v>22.04812161398913</v>
       </c>
       <c r="N20">
-        <v>9.454160739964564</v>
+        <v>16.20055435357183</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.58244703434019</v>
+        <v>13.25011595838464</v>
       </c>
       <c r="C21">
-        <v>18.19769224373873</v>
+        <v>10.71636794811675</v>
       </c>
       <c r="D21">
-        <v>3.185694432142839</v>
+        <v>3.734647075571485</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>27.23704947090836</v>
+        <v>22.99932280999699</v>
       </c>
       <c r="G21">
-        <v>39.15268087892061</v>
+        <v>27.89378798668896</v>
       </c>
       <c r="H21">
-        <v>10.3987937937542</v>
+        <v>12.86387034851905</v>
       </c>
       <c r="I21">
-        <v>14.23621889200454</v>
+        <v>17.86754691968971</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>40.75925307843416</v>
+        <v>22.8586213161173</v>
       </c>
       <c r="N21">
-        <v>9.052863150488905</v>
+        <v>16.11447366407124</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.41487263127879</v>
+        <v>13.69804232030823</v>
       </c>
       <c r="C22">
-        <v>18.82696773270929</v>
+        <v>11.03948915278182</v>
       </c>
       <c r="D22">
-        <v>3.214166240844019</v>
+        <v>3.74768811036299</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>28.32312536997473</v>
+        <v>23.20897840726101</v>
       </c>
       <c r="G22">
-        <v>40.73006079090511</v>
+        <v>28.31854400239757</v>
       </c>
       <c r="H22">
-        <v>10.63357630896937</v>
+        <v>12.87538032678898</v>
       </c>
       <c r="I22">
-        <v>14.52398061401269</v>
+        <v>17.86266669626738</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>42.73756190925613</v>
+        <v>23.38021060382656</v>
       </c>
       <c r="N22">
-        <v>8.785369389999893</v>
+        <v>16.05976840605321</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.97385181705297</v>
+        <v>13.45994928590924</v>
       </c>
       <c r="C23">
-        <v>18.49343990968396</v>
+        <v>10.86835247513351</v>
       </c>
       <c r="D23">
-        <v>3.199106107167018</v>
+        <v>3.740743735956852</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>27.74508363109896</v>
+        <v>23.09668236311117</v>
       </c>
       <c r="G23">
-        <v>39.88994095974697</v>
+        <v>28.09174573125525</v>
       </c>
       <c r="H23">
-        <v>10.50756189260027</v>
+        <v>12.86897712293451</v>
       </c>
       <c r="I23">
-        <v>14.36854265926012</v>
+        <v>17.86483778257431</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>41.67927209477205</v>
+        <v>23.10262561849114</v>
       </c>
       <c r="N23">
-        <v>8.928732849238139</v>
+        <v>16.08882418200498</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.23184244405764</v>
+        <v>12.59971151205773</v>
       </c>
       <c r="C24">
-        <v>17.17907788925833</v>
+        <v>10.19129948373426</v>
       </c>
       <c r="D24">
-        <v>3.139318167377999</v>
+        <v>3.714102358835749</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>25.71725554037062</v>
+        <v>22.68052314768864</v>
       </c>
       <c r="G24">
-        <v>36.66692504874756</v>
+        <v>27.23588524854782</v>
       </c>
       <c r="H24">
-        <v>10.04546530344789</v>
+        <v>12.85044387483117</v>
       </c>
       <c r="I24">
-        <v>13.81936331695149</v>
+        <v>17.88256149884273</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>37.70442123685885</v>
+        <v>22.03474996411292</v>
       </c>
       <c r="N24">
-        <v>9.460655306444798</v>
+        <v>16.2019876773335</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.19873945552949</v>
+        <v>11.62919647341128</v>
       </c>
       <c r="C25">
-        <v>15.65162278296821</v>
+        <v>9.399902689257967</v>
       </c>
       <c r="D25">
-        <v>3.070181707504668</v>
+        <v>3.684688783057232</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>23.56945586059122</v>
+        <v>22.2535418707564</v>
       </c>
       <c r="G25">
-        <v>33.23405242388232</v>
+        <v>26.32551707877973</v>
       </c>
       <c r="H25">
-        <v>9.577693996990496</v>
+        <v>12.8426773123957</v>
       </c>
       <c r="I25">
-        <v>13.30452208025235</v>
+        <v>17.92180677657364</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>33.38531607421253</v>
+        <v>20.85400412140049</v>
       </c>
       <c r="N25">
-        <v>10.0216030923194</v>
+        <v>16.33079223118141</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_198/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_198/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.86194475070221</v>
+        <v>18.56787557962785</v>
       </c>
       <c r="C2">
-        <v>8.765511308359851</v>
+        <v>14.43196797206291</v>
       </c>
       <c r="D2">
-        <v>3.662496967612788</v>
+        <v>3.016207631719456</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>21.9602068832595</v>
+        <v>21.9643692160486</v>
       </c>
       <c r="G2">
-        <v>25.67250057052817</v>
+        <v>30.64586051082552</v>
       </c>
       <c r="H2">
-        <v>12.8474512730467</v>
+        <v>9.258507345770182</v>
       </c>
       <c r="I2">
-        <v>17.96781131422806</v>
+        <v>12.98590195003085</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.96712029853189</v>
+        <v>30.10490747726204</v>
       </c>
       <c r="N2">
-        <v>16.4315220332652</v>
+        <v>10.4315740322488</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.31135853239955</v>
+        <v>17.37843486810597</v>
       </c>
       <c r="C3">
-        <v>8.303997148163383</v>
+        <v>13.54595908235245</v>
       </c>
       <c r="D3">
-        <v>3.647148156859569</v>
+        <v>2.978083582715773</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>21.77557571008817</v>
+        <v>20.86499424133708</v>
       </c>
       <c r="G3">
-        <v>25.24395389201186</v>
+        <v>28.85378048539563</v>
       </c>
       <c r="H3">
-        <v>12.85720858881789</v>
+        <v>9.057550135612955</v>
       </c>
       <c r="I3">
-        <v>18.00954440375927</v>
+        <v>12.80465403048552</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19.35943292105068</v>
+        <v>27.79320446648904</v>
       </c>
       <c r="N3">
-        <v>16.50351005695181</v>
+        <v>10.71045182765658</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.959174187497171</v>
+        <v>16.60642203725545</v>
       </c>
       <c r="C4">
-        <v>8.005361946026103</v>
+        <v>12.97265876771597</v>
       </c>
       <c r="D4">
-        <v>3.637579773793059</v>
+        <v>2.954020558786739</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>21.66951450099396</v>
+        <v>20.18599213614531</v>
       </c>
       <c r="G4">
-        <v>24.98880842876541</v>
+        <v>27.73680467164892</v>
       </c>
       <c r="H4">
-        <v>12.86640559219111</v>
+        <v>8.941624829882322</v>
       </c>
       <c r="I4">
-        <v>18.04033248779136</v>
+        <v>12.7094344132609</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>18.9846351146308</v>
+        <v>26.32343806966216</v>
       </c>
       <c r="N4">
-        <v>16.54956241880686</v>
+        <v>10.882972913963</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.812282175279332</v>
+        <v>16.28132337825317</v>
       </c>
       <c r="C5">
-        <v>7.879887664047845</v>
+        <v>12.73168928388282</v>
       </c>
       <c r="D5">
-        <v>3.633645650873091</v>
+        <v>2.944065188302357</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>21.62817464366716</v>
+        <v>19.90862630034228</v>
       </c>
       <c r="G5">
-        <v>24.8870017372267</v>
+        <v>27.27790364943495</v>
       </c>
       <c r="H5">
-        <v>12.87095776561364</v>
+        <v>8.896243606518265</v>
       </c>
       <c r="I5">
-        <v>18.0541707453555</v>
+        <v>12.67451117380314</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.83173848483743</v>
+        <v>25.71098052449186</v>
       </c>
       <c r="N5">
-        <v>16.56879678073527</v>
+        <v>10.95370052063481</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.78769285600568</v>
+        <v>16.22670679954034</v>
       </c>
       <c r="C6">
-        <v>7.858826586289217</v>
+        <v>12.6912337298333</v>
       </c>
       <c r="D6">
-        <v>3.632990321707335</v>
+        <v>2.942403505928977</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>21.62142501298327</v>
+        <v>19.86254060894253</v>
       </c>
       <c r="G6">
-        <v>24.87023226298064</v>
+        <v>27.20149437022417</v>
       </c>
       <c r="H6">
-        <v>12.87176216798174</v>
+        <v>8.888819803945463</v>
       </c>
       <c r="I6">
-        <v>18.05654640148146</v>
+        <v>12.66894166054358</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.80634802907286</v>
+        <v>25.60844333034263</v>
       </c>
       <c r="N6">
-        <v>16.57201893808112</v>
+        <v>10.96547307895634</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.95720655565945</v>
+        <v>16.60208015638148</v>
       </c>
       <c r="C7">
-        <v>8.003684964095275</v>
+        <v>12.96943867207035</v>
       </c>
       <c r="D7">
-        <v>3.637526856541805</v>
+        <v>2.953886883024884</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>21.6689493057907</v>
+        <v>20.1822536965389</v>
       </c>
       <c r="G7">
-        <v>24.98742644655866</v>
+        <v>27.73063015463612</v>
       </c>
       <c r="H7">
-        <v>12.86646373051163</v>
+        <v>8.941005300265619</v>
       </c>
       <c r="I7">
-        <v>18.04051389380002</v>
+        <v>12.7089479361707</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>18.98257340903521</v>
+        <v>26.31523402122301</v>
       </c>
       <c r="N7">
-        <v>16.54981992394851</v>
+        <v>10.88392493175366</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.67513094268495</v>
+        <v>18.16639827235666</v>
       </c>
       <c r="C8">
-        <v>8.609581445087548</v>
+        <v>14.13255806638381</v>
       </c>
       <c r="D8">
-        <v>3.657235404608029</v>
+        <v>3.003207704648394</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>21.89505831422094</v>
+        <v>21.58631165464599</v>
       </c>
       <c r="G8">
-        <v>25.5231777987405</v>
+        <v>30.03163879695733</v>
       </c>
       <c r="H8">
-        <v>12.85014919573495</v>
+        <v>9.187658677867338</v>
       </c>
       <c r="I8">
-        <v>17.98112527935036</v>
+        <v>12.91997847999096</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.75808783630529</v>
+        <v>29.31773808302109</v>
       </c>
       <c r="N8">
-        <v>16.45596051034463</v>
+        <v>10.52752761091976</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.9645468455595</v>
+        <v>20.90429814316461</v>
       </c>
       <c r="C9">
-        <v>9.67458477411569</v>
+        <v>16.18086653605596</v>
       </c>
       <c r="D9">
-        <v>3.694683063391323</v>
+        <v>3.094001595655003</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>22.39424535836159</v>
+        <v>24.29687795751481</v>
       </c>
       <c r="G9">
-        <v>26.62991791227055</v>
+        <v>34.3984431163693</v>
       </c>
       <c r="H9">
-        <v>12.84366143683344</v>
+        <v>9.731284740621984</v>
       </c>
       <c r="I9">
-        <v>17.9059148754663</v>
+        <v>13.46815469845444</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.25498684841351</v>
+        <v>34.85171831069691</v>
       </c>
       <c r="N9">
-        <v>16.28649532637317</v>
+        <v>9.833574062809959</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.8328055026891</v>
+        <v>22.71672942464873</v>
       </c>
       <c r="C10">
-        <v>10.3799040943613</v>
+        <v>17.54442913113348</v>
       </c>
       <c r="D10">
-        <v>3.721388896259307</v>
+        <v>3.155963455975435</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>22.79186101184996</v>
+        <v>26.25256528770771</v>
       </c>
       <c r="G10">
-        <v>27.46746456653022</v>
+        <v>37.54910547364433</v>
       </c>
       <c r="H10">
-        <v>12.85451200200682</v>
+        <v>10.1684024762274</v>
       </c>
       <c r="I10">
-        <v>17.87615839372357</v>
+        <v>13.96200988880775</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.32717912165167</v>
+        <v>38.78146758935678</v>
       </c>
       <c r="N10">
-        <v>16.17074648944493</v>
+        <v>9.317746637515151</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.20957282453545</v>
+        <v>23.49845764203634</v>
       </c>
       <c r="C11">
-        <v>10.68374267348345</v>
+        <v>18.13426128208538</v>
       </c>
       <c r="D11">
-        <v>3.733347058542964</v>
+        <v>3.182812666418811</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>22.97871685065532</v>
+        <v>27.13403658375789</v>
       </c>
       <c r="G11">
-        <v>27.85172492080215</v>
+        <v>38.99548218807215</v>
       </c>
       <c r="H11">
-        <v>12.86284535934976</v>
+        <v>10.37582840855425</v>
       </c>
       <c r="I11">
-        <v>17.86822425365484</v>
+        <v>14.2085069878717</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.80655757884262</v>
+        <v>40.56403760217246</v>
       </c>
       <c r="N11">
-        <v>16.11996080741972</v>
+        <v>9.079133806465386</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.35964950910524</v>
+        <v>23.78835783524822</v>
       </c>
       <c r="C12">
-        <v>10.79633565108116</v>
+        <v>18.35324920386151</v>
       </c>
       <c r="D12">
-        <v>3.737846568500422</v>
+        <v>3.192754248444311</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>23.05026950869142</v>
+        <v>27.50374043527823</v>
       </c>
       <c r="G12">
-        <v>27.99753482191915</v>
+        <v>39.5395728967403</v>
       </c>
       <c r="H12">
-        <v>12.8664892337072</v>
+        <v>10.45565595217665</v>
       </c>
       <c r="I12">
-        <v>17.86602990145908</v>
+        <v>14.3051769033152</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.9867068596973</v>
+        <v>41.24110499430967</v>
       </c>
       <c r="N12">
-        <v>16.10099605299884</v>
+        <v>8.987914622890916</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.32601583011346</v>
+        <v>23.72619469392856</v>
       </c>
       <c r="C13">
-        <v>10.77219655720821</v>
+        <v>18.30628042708424</v>
       </c>
       <c r="D13">
-        <v>3.736878820986149</v>
+        <v>3.190623808586497</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>23.0348250869696</v>
+        <v>27.42309389595229</v>
       </c>
       <c r="G13">
-        <v>27.96612140089112</v>
+        <v>39.42254745261999</v>
       </c>
       <c r="H13">
-        <v>12.86568275676987</v>
+        <v>10.43840579787171</v>
       </c>
       <c r="I13">
-        <v>17.86646639719687</v>
+        <v>14.28420607237073</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.9479725468653</v>
+        <v>41.09514194818786</v>
       </c>
       <c r="N13">
-        <v>16.10506862472901</v>
+        <v>9.007604153819981</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.22114379574811</v>
+        <v>23.5224305196242</v>
       </c>
       <c r="C14">
-        <v>10.69305523254827</v>
+        <v>18.15236506353823</v>
       </c>
       <c r="D14">
-        <v>3.733717820843363</v>
+        <v>3.183635309348221</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>22.98458798896237</v>
+        <v>27.16142848670557</v>
       </c>
       <c r="G14">
-        <v>27.86371575156362</v>
+        <v>39.04031502366057</v>
       </c>
       <c r="H14">
-        <v>12.86313536205534</v>
+        <v>10.38236988586416</v>
       </c>
       <c r="I14">
-        <v>17.86802746267695</v>
+        <v>14.21639223835056</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.82140719927078</v>
+        <v>40.61968039255346</v>
       </c>
       <c r="N14">
-        <v>16.1183952329475</v>
+        <v>9.071648378387179</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.16052693247204</v>
+        <v>23.39682221264538</v>
       </c>
       <c r="C15">
-        <v>10.64425755267172</v>
+        <v>18.05751875624301</v>
       </c>
       <c r="D15">
-        <v>3.731777826751356</v>
+        <v>3.179324137289905</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>22.95391780806615</v>
+        <v>27.01814437533023</v>
       </c>
       <c r="G15">
-        <v>27.80102331359253</v>
+        <v>38.80572728687271</v>
       </c>
       <c r="H15">
-        <v>12.86163857154002</v>
+        <v>10.34821463783529</v>
       </c>
       <c r="I15">
-        <v>17.86908928892386</v>
+        <v>14.17529355428186</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.74369746045302</v>
+        <v>40.32880968609648</v>
       </c>
       <c r="N15">
-        <v>16.12659283301489</v>
+        <v>9.110755078264026</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.80781028857369</v>
+        <v>22.66478362533388</v>
       </c>
       <c r="C16">
-        <v>10.35970355007973</v>
+        <v>17.50527037711628</v>
       </c>
       <c r="D16">
-        <v>3.72060344995064</v>
+        <v>3.154179215608706</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>22.77976429996504</v>
+        <v>26.19479835798549</v>
       </c>
       <c r="G16">
-        <v>27.44240317749518</v>
+        <v>37.45405375373803</v>
       </c>
       <c r="H16">
-        <v>12.85403574390549</v>
+        <v>10.15502287602058</v>
       </c>
       <c r="I16">
-        <v>17.87679004055222</v>
+        <v>13.94635553896947</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.29566663936975</v>
+        <v>38.66508957482395</v>
       </c>
       <c r="N16">
-        <v>16.17410288506888</v>
+        <v>9.333237588999401</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.58671325154791</v>
+        <v>22.20477119944136</v>
       </c>
       <c r="C17">
-        <v>10.18076704996328</v>
+        <v>17.15869197615245</v>
       </c>
       <c r="D17">
-        <v>3.713698553020992</v>
+        <v>3.138389728878615</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>22.67441205576068</v>
+        <v>25.68762793763013</v>
       </c>
       <c r="G17">
-        <v>27.22311326685475</v>
+        <v>36.61800706978828</v>
       </c>
       <c r="H17">
-        <v>12.85024171715711</v>
+        <v>10.03873071736108</v>
       </c>
       <c r="I17">
-        <v>17.88295247544594</v>
+        <v>13.81162817016036</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.01853903406867</v>
+        <v>37.64488566555826</v>
       </c>
       <c r="N17">
-        <v>16.20372598878965</v>
+        <v>9.468523938286504</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.45783346470129</v>
+        <v>21.93615866285366</v>
       </c>
       <c r="C18">
-        <v>10.07624669945778</v>
+        <v>16.95648169375166</v>
       </c>
       <c r="D18">
-        <v>3.709709195549587</v>
+        <v>3.129184503160492</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>22.61438297993763</v>
+        <v>25.3951371749023</v>
       </c>
       <c r="G18">
-        <v>27.09729986132039</v>
+        <v>36.14852583626377</v>
       </c>
       <c r="H18">
-        <v>12.84837931912256</v>
+        <v>9.972646395346315</v>
       </c>
       <c r="I18">
-        <v>17.88702401710281</v>
+        <v>13.73618001361778</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.85836448079736</v>
+        <v>37.05740732823175</v>
       </c>
       <c r="N18">
-        <v>16.22094046299822</v>
+        <v>9.545985486957656</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.41390550209761</v>
+        <v>21.84451878348659</v>
       </c>
       <c r="C19">
-        <v>10.04058357522255</v>
+        <v>16.88752384156233</v>
       </c>
       <c r="D19">
-        <v>3.708355445821187</v>
+        <v>3.126047445805095</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>22.59415746919611</v>
+        <v>25.29597027363212</v>
       </c>
       <c r="G19">
-        <v>27.05476117932712</v>
+        <v>35.99084761726686</v>
       </c>
       <c r="H19">
-        <v>12.84780367604</v>
+        <v>9.950408316579415</v>
       </c>
       <c r="I19">
-        <v>17.88849294873842</v>
+        <v>13.71098025285165</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.8040042025756</v>
+        <v>36.85830754172097</v>
       </c>
       <c r="N19">
-        <v>16.22679928803851</v>
+        <v>9.572159967128044</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.61042699212446</v>
+        <v>22.25415672777665</v>
       </c>
       <c r="C20">
-        <v>10.19998096480379</v>
+        <v>17.19588252080649</v>
       </c>
       <c r="D20">
-        <v>3.714435447976215</v>
+        <v>3.140083547681286</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>22.68556879378328</v>
+        <v>25.74169758325003</v>
       </c>
       <c r="G20">
-        <v>27.24642555416386</v>
+        <v>36.70727365029637</v>
       </c>
       <c r="H20">
-        <v>12.85061249796365</v>
+        <v>10.0510267429827</v>
       </c>
       <c r="I20">
-        <v>17.88224188912119</v>
+        <v>13.8257573705161</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.04812161398913</v>
+        <v>37.75354128900005</v>
       </c>
       <c r="N20">
-        <v>16.20055435357183</v>
+        <v>9.454160739964596</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.25011595838464</v>
+        <v>23.58244703434026</v>
       </c>
       <c r="C21">
-        <v>10.71636794811675</v>
+        <v>18.19769224373873</v>
       </c>
       <c r="D21">
-        <v>3.734647075571485</v>
+        <v>3.185694432142873</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>22.99932280999699</v>
+        <v>27.23704947090839</v>
       </c>
       <c r="G21">
-        <v>27.89378798668896</v>
+        <v>39.15268087892063</v>
       </c>
       <c r="H21">
-        <v>12.86387034851905</v>
+        <v>10.39879379375419</v>
       </c>
       <c r="I21">
-        <v>17.86754691968971</v>
+        <v>14.23621889200452</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.8586213161173</v>
+        <v>40.75925307843421</v>
       </c>
       <c r="N21">
-        <v>16.11447366407124</v>
+        <v>9.052863150488905</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.69804232030823</v>
+        <v>24.41487263127874</v>
       </c>
       <c r="C22">
-        <v>11.03948915278182</v>
+        <v>18.82696773270921</v>
       </c>
       <c r="D22">
-        <v>3.74768811036299</v>
+        <v>3.214166240844019</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>23.20897840726101</v>
+        <v>28.32312536997471</v>
       </c>
       <c r="G22">
-        <v>28.31854400239757</v>
+        <v>40.73006079090508</v>
       </c>
       <c r="H22">
-        <v>12.87538032678898</v>
+        <v>10.63357630896939</v>
       </c>
       <c r="I22">
-        <v>17.86266669626738</v>
+        <v>14.52398061401273</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.38021060382656</v>
+        <v>42.73756190925604</v>
       </c>
       <c r="N22">
-        <v>16.05976840605321</v>
+        <v>8.785369389999893</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.45994928590924</v>
+        <v>23.97385181705294</v>
       </c>
       <c r="C23">
-        <v>10.86835247513351</v>
+        <v>18.49343990968385</v>
       </c>
       <c r="D23">
-        <v>3.740743735956852</v>
+        <v>3.199106107167125</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>23.09668236311117</v>
+        <v>27.74508363109894</v>
       </c>
       <c r="G23">
-        <v>28.09174573125525</v>
+        <v>39.88994095974687</v>
       </c>
       <c r="H23">
-        <v>12.86897712293451</v>
+        <v>10.50756189260029</v>
       </c>
       <c r="I23">
-        <v>17.86483778257431</v>
+        <v>14.36854265926018</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.10262561849114</v>
+        <v>41.67927209477196</v>
       </c>
       <c r="N23">
-        <v>16.08882418200498</v>
+        <v>8.928732849238205</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.59971151205773</v>
+        <v>22.23184244405762</v>
       </c>
       <c r="C24">
-        <v>10.19129948373426</v>
+        <v>17.17907788925838</v>
       </c>
       <c r="D24">
-        <v>3.714102358835749</v>
+        <v>3.139318167378154</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>22.68052314768864</v>
+        <v>25.71725554037061</v>
       </c>
       <c r="G24">
-        <v>27.23588524854782</v>
+        <v>36.66692504874758</v>
       </c>
       <c r="H24">
-        <v>12.85044387483117</v>
+        <v>10.04546530344791</v>
       </c>
       <c r="I24">
-        <v>17.88256149884273</v>
+        <v>13.81936331695153</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.03474996411292</v>
+        <v>37.70442123685891</v>
       </c>
       <c r="N24">
-        <v>16.2019876773335</v>
+        <v>9.460655306444831</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.62919647341128</v>
+        <v>20.1987394555296</v>
       </c>
       <c r="C25">
-        <v>9.399902689257967</v>
+        <v>15.65162278296819</v>
       </c>
       <c r="D25">
-        <v>3.684688783057232</v>
+        <v>3.070181707504668</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>22.2535418707564</v>
+        <v>23.56945586059123</v>
       </c>
       <c r="G25">
-        <v>26.32551707877973</v>
+        <v>33.23405242388238</v>
       </c>
       <c r="H25">
-        <v>12.8426773123957</v>
+        <v>9.577693996990449</v>
       </c>
       <c r="I25">
-        <v>17.92180677657364</v>
+        <v>13.30452208025234</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.85400412140049</v>
+        <v>33.38531607421248</v>
       </c>
       <c r="N25">
-        <v>16.33079223118141</v>
+        <v>10.02160309231936</v>
       </c>
       <c r="O25">
         <v>0</v>
